--- a/output/SHARP_19366052000104.xlsx
+++ b/output/SHARP_19366052000104.xlsx
@@ -1120,10 +1120,10 @@
         <v>44165</v>
       </c>
       <c r="B67">
-        <v>1.12662489</v>
+        <v>1.12558382</v>
       </c>
       <c r="C67">
-        <v>0.003464611417525187</v>
+        <v>0.002973374383706595</v>
       </c>
     </row>
   </sheetData>

--- a/output/SHARP_19366052000104.xlsx
+++ b/output/SHARP_19366052000104.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SHARP LONG SHORT 2X FEEDER FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,744 +383,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42185</v>
       </c>
       <c r="B2">
-        <v>0.01326390000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42216</v>
       </c>
       <c r="B3">
-        <v>0.02959408000000008</v>
-      </c>
-      <c r="C3">
         <v>0.01611641350293835</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42247</v>
       </c>
       <c r="B4">
-        <v>0.04792920000000001</v>
-      </c>
-      <c r="C4">
         <v>0.01780810550115053</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42277</v>
       </c>
       <c r="B5">
-        <v>0.05296009000000002</v>
-      </c>
-      <c r="C5">
         <v>0.004800791885558597</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42308</v>
       </c>
       <c r="B6">
-        <v>0.06366753000000003</v>
-      </c>
-      <c r="C6">
         <v>0.01016889443549562</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42338</v>
       </c>
       <c r="B7">
-        <v>0.08073865000000002</v>
-      </c>
-      <c r="C7">
         <v>0.01604930066822674</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42369</v>
       </c>
       <c r="B8">
-        <v>0.09204056999999999</v>
-      </c>
-      <c r="C8">
         <v>0.01045758842806266</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42400</v>
       </c>
       <c r="B9">
-        <v>0.10737694</v>
-      </c>
-      <c r="C9">
         <v>0.01404377311733018</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42429</v>
       </c>
       <c r="B10">
-        <v>0.10365461</v>
-      </c>
-      <c r="C10">
         <v>-0.003361393817718494</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42460</v>
       </c>
       <c r="B11">
-        <v>0.12416929</v>
-      </c>
-      <c r="C11">
         <v>0.01858795298286298</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42490</v>
       </c>
       <c r="B12">
-        <v>0.13840257</v>
-      </c>
-      <c r="C12">
         <v>0.01266115355277142</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42521</v>
       </c>
       <c r="B13">
-        <v>0.19438201</v>
-      </c>
-      <c r="C13">
         <v>0.04917367676005857</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42551</v>
       </c>
       <c r="B14">
-        <v>0.2130468999999999</v>
-      </c>
-      <c r="C14">
         <v>0.01562723638143204</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42582</v>
       </c>
       <c r="B15">
-        <v>0.2204064100000001</v>
-      </c>
-      <c r="C15">
         <v>0.006066962456274361</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42613</v>
       </c>
       <c r="B16">
-        <v>0.23722449</v>
-      </c>
-      <c r="C16">
         <v>0.0137807208010321</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42643</v>
       </c>
       <c r="B17">
-        <v>0.23409799</v>
-      </c>
-      <c r="C17">
         <v>-0.002527027249517255</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42674</v>
       </c>
       <c r="B18">
-        <v>0.25134185</v>
-      </c>
-      <c r="C18">
         <v>0.01397284505746588</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42704</v>
       </c>
       <c r="B19">
-        <v>0.2430330300000001</v>
-      </c>
-      <c r="C19">
         <v>-0.006639928169908105</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42735</v>
       </c>
       <c r="B20">
-        <v>0.2832700800000001</v>
-      </c>
-      <c r="C20">
         <v>0.03237005697266149</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42766</v>
       </c>
       <c r="B21">
-        <v>0.3093515200000001</v>
-      </c>
-      <c r="C21">
         <v>0.02032420174559046</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42794</v>
       </c>
       <c r="B22">
-        <v>0.3144729799999999</v>
-      </c>
-      <c r="C22">
         <v>0.003911447706571369</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42825</v>
       </c>
       <c r="B23">
-        <v>0.3504207399999999</v>
-      </c>
-      <c r="C23">
         <v>0.02734765989636401</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42855</v>
       </c>
       <c r="B24">
-        <v>0.3618256</v>
-      </c>
-      <c r="C24">
         <v>0.008445412353486281</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42886</v>
       </c>
       <c r="B25">
-        <v>0.37384383</v>
-      </c>
-      <c r="C25">
         <v>0.008825087441446167</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42916</v>
       </c>
       <c r="B26">
-        <v>0.3967875599999999</v>
-      </c>
-      <c r="C26">
         <v>0.01670039163039361</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42947</v>
       </c>
       <c r="B27">
-        <v>0.406914</v>
-      </c>
-      <c r="C27">
         <v>0.007249806835335937</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42978</v>
       </c>
       <c r="B28">
-        <v>0.41938718</v>
-      </c>
-      <c r="C28">
         <v>0.008865630735069852</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43008</v>
       </c>
       <c r="B29">
-        <v>0.42771889</v>
-      </c>
-      <c r="C29">
         <v>0.005869934657293463</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43039</v>
       </c>
       <c r="B30">
-        <v>0.4425180200000001</v>
-      </c>
-      <c r="C30">
         <v>0.01036557693790829</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43069</v>
       </c>
       <c r="B31">
-        <v>0.43929054</v>
-      </c>
-      <c r="C31">
         <v>-0.002237393193881942</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43100</v>
       </c>
       <c r="B32">
-        <v>0.44791637</v>
-      </c>
-      <c r="C32">
         <v>0.005993112412174817</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43131</v>
       </c>
       <c r="B33">
-        <v>0.4672421600000001</v>
-      </c>
-      <c r="C33">
         <v>0.01334731093619723</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43159</v>
       </c>
       <c r="B34">
-        <v>0.4858236</v>
-      </c>
-      <c r="C34">
         <v>0.01266419443672473</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43190</v>
       </c>
       <c r="B35">
-        <v>0.50391713</v>
-      </c>
-      <c r="C35">
         <v>0.01217744152132183</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43220</v>
       </c>
       <c r="B36">
-        <v>0.5081560300000001</v>
-      </c>
-      <c r="C36">
         <v>0.002818572855806334</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43251</v>
       </c>
       <c r="B37">
-        <v>0.52073502</v>
-      </c>
-      <c r="C37">
         <v>0.008340642314044855</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43281</v>
       </c>
       <c r="B38">
-        <v>0.52931174</v>
-      </c>
-      <c r="C38">
         <v>0.005639851708024723</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43312</v>
       </c>
       <c r="B39">
-        <v>0.5459232899999999</v>
-      </c>
-      <c r="C39">
         <v>0.01086210846717228</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43343</v>
       </c>
       <c r="B40">
-        <v>0.5545754700000001</v>
-      </c>
-      <c r="C40">
         <v>0.005596771881223317</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43373</v>
       </c>
       <c r="B41">
-        <v>0.55527886</v>
-      </c>
-      <c r="C41">
         <v>0.000452464363148497</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43404</v>
       </c>
       <c r="B42">
-        <v>0.6033914</v>
-      </c>
-      <c r="C42">
         <v>0.0309349925839022</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43434</v>
       </c>
       <c r="B43">
-        <v>0.6188264800000001</v>
-      </c>
-      <c r="C43">
         <v>0.009626520386725401</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43465</v>
       </c>
       <c r="B44">
-        <v>0.63921154</v>
-      </c>
-      <c r="C44">
         <v>0.01259249230961434</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43496</v>
       </c>
       <c r="B45">
-        <v>0.6501176</v>
-      </c>
-      <c r="C45">
         <v>0.006653235249917788</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43524</v>
       </c>
       <c r="B46">
-        <v>0.65938849</v>
-      </c>
-      <c r="C46">
         <v>0.005618320779076535</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43555</v>
       </c>
       <c r="B47">
-        <v>0.66572396</v>
-      </c>
-      <c r="C47">
         <v>0.003817954649064648</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43585</v>
       </c>
       <c r="B48">
-        <v>0.67540942</v>
-      </c>
-      <c r="C48">
         <v>0.005814564857433036</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43616</v>
       </c>
       <c r="B49">
-        <v>0.68891053</v>
-      </c>
-      <c r="C49">
         <v>0.008058394466947671</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43646</v>
       </c>
       <c r="B50">
-        <v>0.70625808</v>
-      </c>
-      <c r="C50">
         <v>0.01027144404150282</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43677</v>
       </c>
       <c r="B51">
-        <v>0.72468789</v>
-      </c>
-      <c r="C51">
         <v>0.01080130269624857</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43708</v>
       </c>
       <c r="B52">
-        <v>0.7543094699999999</v>
-      </c>
-      <c r="C52">
         <v>0.01717503797165287</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43738</v>
       </c>
       <c r="B53">
-        <v>0.7632753999999999</v>
-      </c>
-      <c r="C53">
         <v>0.005110802941741044</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43769</v>
       </c>
       <c r="B54">
-        <v>0.7721491</v>
-      </c>
-      <c r="C54">
         <v>0.005032509385658024</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43799</v>
       </c>
       <c r="B55">
-        <v>0.7773480399999999</v>
-      </c>
-      <c r="C55">
         <v>0.002933692204566629</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43830</v>
       </c>
       <c r="B56">
-        <v>0.78614071</v>
-      </c>
-      <c r="C56">
         <v>0.004947072718520573</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43861</v>
       </c>
       <c r="B57">
-        <v>0.80069258</v>
-      </c>
-      <c r="C57">
         <v>0.00814710169166899</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43890</v>
       </c>
       <c r="B58">
-        <v>0.86034093</v>
-      </c>
-      <c r="C58">
         <v>0.03312522673914731</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43921</v>
       </c>
       <c r="B59">
-        <v>0.99393416</v>
-      </c>
-      <c r="C59">
         <v>0.07181115452854114</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43951</v>
       </c>
       <c r="B60">
-        <v>1.01264372</v>
-      </c>
-      <c r="C60">
         <v>0.009383238612051148</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43982</v>
       </c>
       <c r="B61">
-        <v>1.04470127</v>
-      </c>
-      <c r="C61">
         <v>0.01592807990874823</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>44012</v>
       </c>
       <c r="B62">
-        <v>1.04791111</v>
-      </c>
-      <c r="C62">
         <v>0.001569833230455231</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44043</v>
       </c>
       <c r="B63">
-        <v>1.08217651</v>
-      </c>
-      <c r="C63">
         <v>0.01673187856283476</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44074</v>
       </c>
       <c r="B64">
-        <v>1.10103532</v>
-      </c>
-      <c r="C64">
         <v>0.009057258070786611</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44104</v>
       </c>
       <c r="B65">
-        <v>1.10615287</v>
-      </c>
-      <c r="C65">
         <v>0.002435727734457993</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>44135</v>
       </c>
       <c r="B66">
-        <v>1.1192824</v>
-      </c>
-      <c r="C66">
         <v>0.006233892224546844</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44165</v>
       </c>
       <c r="B67">
-        <v>1.12558382</v>
-      </c>
-      <c r="C67">
-        <v>0.002973374383706595</v>
+        <v>0.001615556284523478</v>
       </c>
     </row>
   </sheetData>
